--- a/data/balance_sheet/3digits/total/309_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/309_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>309-Manufacture of transport equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>309-Manufacture of transport equipment n.e.c.</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>510062.75863</v>
@@ -1484,38 +934,43 @@
         <v>617272.55448</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>811127.87898</v>
+        <v>811127.8789800002</v>
       </c>
       <c r="F5" s="33" t="n">
         <v>1046790.36577</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>1016315.94536</v>
+        <v>1030524.33611</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>1123719.93865</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1200683.90807</v>
+        <v>1322669.35402</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1401367.80751</v>
+        <v>1401366.90672</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1862581.91686</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>1780258.68137</v>
+        <v>1782563.40283</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>2220265.59381</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>2229835.94893</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>3039958.088</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>120582.56598</v>
@@ -1530,32 +985,37 @@
         <v>293505.90218</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>270231.5020400001</v>
+        <v>275661.6199</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>266382.60302</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>237621.26797</v>
+        <v>253259.00203</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>306282.0145</v>
+        <v>306281.98733</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>443854.57989</v>
+        <v>443854.5798900001</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>405692.9196</v>
+        <v>405894.92722</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>392955.01907</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>393039.98814</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>905087.633</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>3125.35776</v>
@@ -1570,32 +1030,37 @@
         <v>5283.4548</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>5250.973649999999</v>
+        <v>5327.6357</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>4578.64146</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>12920.31246</v>
+        <v>13016.93694</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>6162.81916</v>
+        <v>6162.791990000001</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>7679.375180000001</v>
+        <v>7679.37518</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>6646.293199999999</v>
+        <v>6879.89135</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>9466.631649999999</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>9528.10124</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>15176.121</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>72290.4598</v>
@@ -1610,19 +1075,19 @@
         <v>211696.70442</v>
       </c>
       <c r="G8" s="22" t="n">
-        <v>201162.26493</v>
+        <v>210400.60771</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>207589.70696</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>201599.98553</v>
+        <v>215587.30853</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>237615.37148</v>
       </c>
       <c r="K8" s="22" t="n">
-        <v>304207.5783100001</v>
+        <v>304207.57831</v>
       </c>
       <c r="L8" s="22" t="n">
         <v>337771.00226</v>
@@ -1630,15 +1095,20 @@
       <c r="M8" s="22" t="n">
         <v>289941.22213</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>638343.677</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>45820.83596000001</v>
+        <v>45820.83596</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>57730.31097</v>
@@ -1650,13 +1120,13 @@
         <v>84617.79240999999</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>64460.76439</v>
+        <v>64862.83033</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>58670.82891</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>25370.30572</v>
+        <v>27930.83911</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>66290.16975</v>
@@ -1665,20 +1135,25 @@
         <v>132093.68385</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>53180.08284</v>
+        <v>53197.67669</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>83141.10668</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>83213.0365</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>233474.453</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
-        <v>5786.367279999999</v>
+        <v>5786.36728</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>10182.0982</v>
@@ -1690,13 +1165,13 @@
         <v>19655.13579</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>19985.13661</v>
+        <v>24272.08952</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>20237.55633</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>18829.32447</v>
+        <v>23360.83896</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>22297.80118</v>
@@ -1705,23 +1180,28 @@
         <v>29286.65693</v>
       </c>
       <c r="L10" s="22" t="n">
-        <v>19717.46979</v>
+        <v>19766.65417</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>21530.87385</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>21580.05823</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>28419.345</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>5132.27974</v>
       </c>
       <c r="D11" s="22" t="n">
-        <v>6114.456270000001</v>
+        <v>6114.45627</v>
       </c>
       <c r="E11" s="22" t="n">
         <v>13837.36461</v>
@@ -1736,7 +1216,7 @@
         <v>15780.98202</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>16559.98873</v>
+        <v>20084.75641</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>18511.45529</v>
@@ -1748,14 +1228,19 @@
         <v>27813.01109</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>31936.93246</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>31937.6865</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>46512.727</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>122.68116</v>
@@ -1767,7 +1252,7 @@
         <v>166.38635</v>
       </c>
       <c r="F12" s="33" t="n">
-        <v>428.3183100000001</v>
+        <v>428.31831</v>
       </c>
       <c r="G12" s="23" t="n">
         <v>5363.91412</v>
@@ -1779,7 +1264,7 @@
         <v>42856.95751</v>
       </c>
       <c r="J12" s="33" t="n">
-        <v>45.31343999999999</v>
+        <v>45.31344</v>
       </c>
       <c r="K12" s="23" t="n">
         <v>535.27188</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>677.08913</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>30.951</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>39.882</v>
@@ -1859,7 +1354,7 @@
         <v>85.39838</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>45.31343999999999</v>
+        <v>45.31344</v>
       </c>
       <c r="K14" s="22" t="n">
         <v>535.1281300000001</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>39.89785</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>28.815</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>337.19128</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>82.79916</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>156581.85698</v>
@@ -2010,32 +1525,37 @@
         <v>254187.57747</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>258360.8176</v>
+        <v>259050.77637</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>373243.95536</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>415934.3794</v>
+        <v>479947.8363200001</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>579735.30091</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>736352.32528</v>
+        <v>736352.3252800001</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>557977.71428</v>
+        <v>558124.3552</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>828746.11681</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>832987.21277</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>876959.728</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>97124.68448000001</v>
@@ -2050,13 +1570,13 @@
         <v>131957.09087</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>129537.59871</v>
+        <v>130225.55748</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>198396.47354</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>165305.60165</v>
+        <v>227871.62989</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>300923.84745</v>
@@ -2065,17 +1585,22 @@
         <v>428833.6002100001</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>358666.25068</v>
+        <v>358761.48905</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>641755.11312</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>645225.8986699999</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>552244.074</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>56400.00649</v>
@@ -2084,19 +1609,19 @@
         <v>90353.46328</v>
       </c>
       <c r="E20" s="22" t="n">
-        <v>92690.15480000002</v>
+        <v>92690.1548</v>
       </c>
       <c r="F20" s="21" t="n">
         <v>96921.15737</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>107792.65837</v>
+        <v>107794.65837</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>156408.4693</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>181111.63247</v>
+        <v>182303.96947</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>215954.38119</v>
@@ -2105,17 +1630,22 @@
         <v>242316.80073</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>137738.61739</v>
+        <v>137783.61739</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>170654.27908</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>171119.83692</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>302324.485</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>36.34998</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>7266.04537</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>12096.297</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>330.89385</v>
@@ -2207,7 +1747,7 @@
         <v>1686.65945</v>
       </c>
       <c r="F23" s="21" t="n">
-        <v>880.8739499999999</v>
+        <v>880.87395</v>
       </c>
       <c r="G23" s="22" t="n">
         <v>1114.63024</v>
@@ -2216,7 +1756,7 @@
         <v>1582.49226</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>1215.26498</v>
+        <v>1230.79952</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>733.11574</v>
@@ -2225,17 +1765,22 @@
         <v>1033.02592</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>1037.90465</v>
+        <v>1044.3072</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>1160.50012</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>1175.45269</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>1963.658</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>1289.23804</v>
@@ -2256,7 +1801,7 @@
         <v>15810.7565</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>8759.293220000001</v>
+        <v>8772.94016</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>19680.3637</v>
@@ -2268,14 +1813,19 @@
         <v>10613.90511</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>12905.43551</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>13195.23551</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>25227.404</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>15819.38772</v>
@@ -2296,7 +1846,7 @@
         <v>30303.97731</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>91823.12125</v>
+        <v>92049.03144999999</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>75924.33569000001</v>
@@ -2305,17 +1855,22 @@
         <v>92310.47055</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>93966.54957999999</v>
+        <v>93966.54958000001</v>
       </c>
       <c r="M25" s="22" t="n">
         <v>37360.58213</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>39184.914</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>14346.00362</v>
@@ -2350,15 +1905,20 @@
       <c r="M26" s="22" t="n">
         <v>27823.74778</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>31888.51</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>7232.911550000001</v>
+        <v>7232.91155</v>
       </c>
       <c r="D27" s="23" t="n">
         <v>11832.81557</v>
@@ -2370,13 +1930,13 @@
         <v>25789.74562</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>47068.55206999999</v>
+        <v>47068.55207</v>
       </c>
       <c r="H27" s="33" t="n">
         <v>34302.25523</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>11049.04133</v>
+        <v>11061.53449</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>9684.60809</v>
@@ -2385,23 +1945,28 @@
         <v>21618.00665</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>25363.3665</v>
+        <v>25363.55627</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>20130.62462</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>21335.29928</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>25912.168</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>2413.45419</v>
       </c>
       <c r="D28" s="22" t="n">
-        <v>8669.210939999999</v>
+        <v>8669.210940000001</v>
       </c>
       <c r="E28" s="22" t="n">
         <v>11556.89438</v>
@@ -2422,20 +1987,25 @@
         <v>4097.95524</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>8432.533219999999</v>
+        <v>8432.533220000001</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>14552.47154</v>
+        <v>14552.47155</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>6682.183930000001</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>7883.32868</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>9729.054</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>3062.22534</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>1596.144</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>2161.896</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>42.03609</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>132.5619</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>156.305</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1715.19593</v>
@@ -2564,10 +2149,10 @@
         <v>2532.66198</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>4302.26516</v>
+        <v>4302.265159999999</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>5581.914630000001</v>
+        <v>5581.91463</v>
       </c>
       <c r="G32" s="22" t="n">
         <v>16751.45355</v>
@@ -2576,7 +2161,7 @@
         <v>17412.43737</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>5983.94233</v>
+        <v>5996.43549</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>5442.58467</v>
@@ -2585,17 +2170,22 @@
         <v>12989.04376</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>9283.011779999999</v>
+        <v>9283.201539999998</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>8852.067719999999</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>8855.597629999998</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>11004.084</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>3229.68979</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>4034.852</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>362.02272</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>1174.023</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>201219.94257</v>
@@ -2730,32 +2335,37 @@
         <v>445319.20593</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>404428.8051300001</v>
+        <v>412462.75035</v>
       </c>
       <c r="H36" s="33" t="n">
         <v>415876.59981</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>460570.64586</v>
+        <v>495841.51898</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>461774.96956</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>611189.5335500001</v>
+        <v>611189.5335499999</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>729128.59796</v>
+        <v>730970.8585</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>892154.02827</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>895671.34867</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1121877.277</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>45879.2113</v>
@@ -2764,19 +2374,19 @@
         <v>59189.21181</v>
       </c>
       <c r="E37" s="22" t="n">
-        <v>96487.04308000002</v>
+        <v>96487.04308</v>
       </c>
       <c r="F37" s="21" t="n">
         <v>133534.63096</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>111819.9756</v>
+        <v>117243.36167</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>140715.36178</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>164492.25516</v>
+        <v>173750.99437</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>126398.01292</v>
@@ -2785,17 +2395,22 @@
         <v>161789.37771</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>249738.96796</v>
+        <v>251133.14326</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>307135.84565</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>309778.15156</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>414181.908</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>8473.8681</v>
@@ -2816,7 +2431,7 @@
         <v>20227.30898</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>19283.45165</v>
+        <v>33431.36978</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>22197.0311</v>
@@ -2825,23 +2440,28 @@
         <v>17661.51352</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>26545.35511</v>
+        <v>26780.30853</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>28554.5375</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>28789.49092</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>28321.23</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>38378.65562999999</v>
       </c>
       <c r="D39" s="22" t="n">
-        <v>35455.06199</v>
+        <v>35455.06198999999</v>
       </c>
       <c r="E39" s="22" t="n">
         <v>68942.69712000001</v>
@@ -2850,13 +2470,13 @@
         <v>102356.87016</v>
       </c>
       <c r="G39" s="22" t="n">
-        <v>76628.53006999999</v>
+        <v>78713.05707000001</v>
       </c>
       <c r="H39" s="21" t="n">
         <v>67758.44437000001</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>72877.83894999999</v>
+        <v>80620.82779999998</v>
       </c>
       <c r="J39" s="21" t="n">
         <v>97061.99808</v>
@@ -2865,17 +2485,22 @@
         <v>108216.16323</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>167587.00041</v>
+        <v>167682.28641</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>188702.73268</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>188798.01868</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>115318.881</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>85674.75091</v>
@@ -2884,19 +2509,19 @@
         <v>59074.65300999999</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>60776.76107999999</v>
+        <v>60776.76108</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>77842.18996</v>
+        <v>77842.18995999999</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>85479.79016</v>
+        <v>85492.92152</v>
       </c>
       <c r="H40" s="21" t="n">
         <v>81160.47715000001</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>92826.90583000002</v>
+        <v>94288.51841</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>112286.76206</v>
@@ -2905,17 +2530,22 @@
         <v>155616.77393</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>114186.63688</v>
+        <v>114304.4827</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>136199.78161</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>136259.38583</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>136205.03</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>1607.52885</v>
@@ -2948,14 +2578,19 @@
         <v>1251.06878</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>1361.80697</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>1380.66799</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>2095.137</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,33 +2625,38 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>21205.92778</v>
       </c>
       <c r="D43" s="22" t="n">
-        <v>34887.3117</v>
+        <v>34887.31170000001</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>95272.69274000001</v>
+        <v>95272.69274</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>56243.61607</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>94907.30742000001</v>
+        <v>95420.20821</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>105222.45069</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>107282.23505</v>
+        <v>109941.8494</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>101215.06758</v>
@@ -3028,14 +2668,19 @@
         <v>170102.36135</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>230199.32386</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>230665.63369</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>425755.091</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>444.02735</v>
@@ -3216,32 +2881,37 @@
         <v>1048.54866</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>1577.32622</v>
+        <v>1627.32622</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>2797.5792</v>
       </c>
       <c r="K48" s="46" t="n">
-        <v>9302.633220000002</v>
+        <v>9302.63322</v>
       </c>
       <c r="L48" s="46" t="n">
         <v>3974.28537</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>20724.83515</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>20726.73864</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>28381.104</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>389.41477</v>
       </c>
       <c r="D49" s="22" t="n">
-        <v>827.1651299999999</v>
+        <v>827.16513</v>
       </c>
       <c r="E49" s="22" t="n">
         <v>1458.57548</v>
@@ -3268,17 +2938,22 @@
         <v>3664.63085</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>15044.25809</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>15046.16158</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>15224.048</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
-        <v>54.61257999999999</v>
+        <v>54.61258</v>
       </c>
       <c r="D50" s="22" t="n">
         <v>92.93091</v>
@@ -3296,26 +2971,31 @@
         <v>105.51589</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>104.51005</v>
+        <v>154.51005</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>1396.02765</v>
       </c>
       <c r="K50" s="22" t="n">
-        <v>6138.43164</v>
+        <v>6138.431640000001</v>
       </c>
       <c r="L50" s="22" t="n">
         <v>309.65452</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>5680.577060000001</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>5680.57706</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>13157.056</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>23878.77304</v>
@@ -3330,32 +3010,37 @@
         <v>23387.9591</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>24198.60715</v>
+        <v>24252.97605</v>
       </c>
       <c r="H51" s="45" t="n">
         <v>29841.59417</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>31074.28978</v>
+        <v>38075.17847</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>40587.78014</v>
+        <v>40586.90652</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>39729.56639</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>56471.25366</v>
+        <v>56584.87627</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>64877.88076</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>65398.2723</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>81709.227</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>21207.48076</v>
@@ -3370,32 +3055,37 @@
         <v>17978.3875</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>14921.85978</v>
+        <v>14976.22868</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>19645.59517</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>23068.51068</v>
+        <v>26810.05164</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>31459.84245</v>
+        <v>31458.96883</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>33381.54469</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>43856.98106000001</v>
+        <v>43924.24388</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>48519.55458</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>48967.30717</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>61192.843</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>84.86431999999999</v>
@@ -3419,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="21" t="n">
-        <v>72.23408999999999</v>
+        <v>72.23409000000001</v>
       </c>
       <c r="K53" s="22" t="n">
         <v>14.35426</v>
@@ -3428,14 +3118,19 @@
         <v>487.37225</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>823.6394200000001</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>824.6424499999999</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>2023.141</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>471.20971</v>
@@ -3453,10 +3148,10 @@
         <v>4679.21709</v>
       </c>
       <c r="H54" s="21" t="n">
-        <v>4955.781130000001</v>
+        <v>4955.78113</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>3189.42111</v>
+        <v>5505.04347</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>2832.30569</v>
@@ -3465,23 +3160,28 @@
         <v>1252.71984</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>5112.80753</v>
+        <v>5148.030019999999</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>8617.843209999999</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>8675.526230000001</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>11622.195</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>347.54652</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>589.8664299999999</v>
+        <v>589.86643</v>
       </c>
       <c r="E55" s="22" t="n">
         <v>2037.92183</v>
@@ -3496,7 +3196,7 @@
         <v>3062.92472</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>3027.31682</v>
+        <v>3161.64745</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>4401.17024</v>
@@ -3505,17 +3205,22 @@
         <v>3479.9833</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>5198.56496</v>
+        <v>5202.187250000001</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>4265.85346</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>4269.47575</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>3480.837</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1730.75462</v>
@@ -3524,10 +3229,10 @@
         <v>2705.63354</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>713.23857</v>
+        <v>713.2385700000001</v>
       </c>
       <c r="F56" s="21" t="n">
-        <v>793.7472899999999</v>
+        <v>793.74729</v>
       </c>
       <c r="G56" s="22" t="n">
         <v>1522.15777</v>
@@ -3536,7 +3241,7 @@
         <v>1791.35519</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>1546.21086</v>
+        <v>2228.47405</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>1551.77854</v>
@@ -3548,14 +3253,19 @@
         <v>1563.46018</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>2454.87451</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>2465.20512</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>2769.496</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>36.75799</v>
@@ -3576,7 +3286,7 @@
         <v>280.97365</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>239.37366</v>
+        <v>366.50521</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>201.3387</v>
@@ -3585,17 +3295,22 @@
         <v>185.23154</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>104.30423</v>
+        <v>111.81924</v>
       </c>
       <c r="M57" s="22" t="n">
         <v>141.97829</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>613.227</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>47.22399000000001</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0.15912</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>6.9133</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>2.858</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>168793.72274</v>
@@ -3729,53 +3459,58 @@
         <v>182665.79353</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>226756.1731</v>
+        <v>228394.69935</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>257652.13822</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>262858.17557</v>
+        <v>273944.8715299999</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>355859.42962</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>389396.9875500001</v>
+        <v>389396.98755</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>376040.63761</v>
+        <v>376313.6888</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>468928.47787</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>469824.27429</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>608966.029</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
-        <v>507.1733800000001</v>
+        <v>507.17338</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>562.1448600000001</v>
+        <v>562.14486</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>598.20182</v>
+        <v>598.2018200000001</v>
       </c>
       <c r="F62" s="37" t="n">
         <v>593.6584399999999</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>7753.38442</v>
+        <v>7753.384420000001</v>
       </c>
       <c r="H62" s="37" t="n">
         <v>30535.2907</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>25174.8826</v>
+        <v>25221.43741</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>21710.66561</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>2460.79078</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>3315.508</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>1096.26489</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>1096.265</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>592.761</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,21 +3704,26 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
-        <v>507.1733800000001</v>
+        <v>507.17338</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>562.1448600000001</v>
+        <v>562.14486</v>
       </c>
       <c r="E67" s="22" t="n">
-        <v>598.20182</v>
+        <v>598.2018200000001</v>
       </c>
       <c r="F67" s="21" t="n">
         <v>593.6584399999999</v>
@@ -3975,26 +3735,31 @@
         <v>815.2906999999999</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>888.8825999999999</v>
+        <v>935.43741</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>597.66561</v>
+        <v>597.6656100000001</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>769.4407599999998</v>
+        <v>769.44076</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>528.9154400000001</v>
+        <v>528.91544</v>
       </c>
       <c r="M67" s="22" t="n">
         <v>1364.52589</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>1626.482</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>6.489199999999999</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>4.777130000000001</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>4.777</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>6.489199999999999</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>4.777130000000001</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>4.777</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>7714.68751</v>
@@ -4375,7 +4185,7 @@
         <v>15854.09041</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>15817.33891</v>
+        <v>15895.62091</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>75063.73491</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>97597.70401999999</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>127628.995</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>7782.81337</v>
@@ -4495,7 +4320,7 @@
         <v>15560.33945</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>15523.58795</v>
+        <v>15601.86995</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>74524.69695</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>56920.69173</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>51823.287</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>361.87682</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>293.75096</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>40677.01229</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>75805.708</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>151310.77023</v>
@@ -4809,13 +4674,13 @@
         <v>171200.80234</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>198831.18163</v>
+        <v>200450.04188</v>
       </c>
       <c r="H88" s="33" t="n">
         <v>187283.65745</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>196706.30692</v>
+        <v>207441.82884</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>225120.48102</v>
@@ -4824,17 +4689,22 @@
         <v>318869.07631</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>290056.5972899999</v>
+        <v>290200.52757</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>330854.36462</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>331489.01778</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>417145.527</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>40775.90643</v>
@@ -4855,7 +4725,7 @@
         <v>5223.22274</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>14768.56743</v>
+        <v>14793.99116</v>
       </c>
       <c r="J89" s="21" t="n">
         <v>10436.64338</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>36775.90121</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>37563.965</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>1812.27917</v>
@@ -4892,7 +4767,7 @@
         <v>692.73601</v>
       </c>
       <c r="H90" s="21" t="n">
-        <v>648.4953200000001</v>
+        <v>648.49532</v>
       </c>
       <c r="I90" s="22" t="n">
         <v>551.39187</v>
@@ -4909,18 +4784,23 @@
       <c r="M90" s="22" t="n">
         <v>582.22047</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>582.22</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>62176.5361</v>
       </c>
       <c r="D91" s="22" t="n">
-        <v>91483.46599000001</v>
+        <v>91483.46599</v>
       </c>
       <c r="E91" s="22" t="n">
         <v>90697.65648999999</v>
@@ -4935,7 +4815,7 @@
         <v>113807.7481</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>113662.44271</v>
+        <v>114405.09595</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>127030.49731</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>190102.24686</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>209097.601</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>142933.72095</v>
@@ -4963,19 +4848,19 @@
         <v>109946.01899</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>94908.88393999999</v>
+        <v>94908.88394</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>104661.29701</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>102182.74059</v>
+        <v>103506.75021</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>89038.93284999998</v>
+        <v>89038.93285</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>80040.04404999998</v>
+        <v>83686.70346</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>74210.89306</v>
@@ -4984,17 +4869,22 @@
         <v>71989.99249999999</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>88150.40518</v>
+        <v>88185.09913</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>79421.83252</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>79655.6358</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>103225.707</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>15193.99524</v>
@@ -5009,13 +4899,13 @@
         <v>21066.65338</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>22858.04613</v>
+        <v>23101.17153</v>
       </c>
       <c r="H93" s="21" t="n">
         <v>24764.00323</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>26006.18991</v>
+        <v>26606.8268</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>31276.45864</v>
@@ -5024,17 +4914,22 @@
         <v>38048.7806</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>39948.5515</v>
+        <v>40094.75918</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>51200.56692</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>51648.7746</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>88890.921</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>17312.98542</v>
@@ -5049,13 +4944,13 @@
         <v>20413.38996</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>20297.09125</v>
+        <v>20471.49741</v>
       </c>
       <c r="H94" s="21" t="n">
         <v>22480.70431</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>22120.54625</v>
+        <v>25538.0811</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>29749.52503</v>
@@ -5064,17 +4959,22 @@
         <v>48915.94497</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>29034.47484</v>
+        <v>29100.02104</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>33794.43366</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>33895.81267</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>44771.278</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>2416.8205</v>
@@ -5098,7 +4998,7 @@
         <v>768.64585</v>
       </c>
       <c r="J95" s="21" t="n">
-        <v>627.5498500000001</v>
+        <v>627.54985</v>
       </c>
       <c r="K95" s="22" t="n">
         <v>678.0819600000001</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>713.12839</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>806.073</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>144239.7055</v>
@@ -5129,13 +5034,13 @@
         <v>124010.58582</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>124079.2362</v>
+        <v>124201.91713</v>
       </c>
       <c r="H96" s="21" t="n">
         <v>113315.76216</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>106229.1664</v>
+        <v>107504.16856</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>102013.66881</v>
@@ -5144,17 +5049,22 @@
         <v>113136.86355</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>88966.10380000001</v>
+        <v>89068.62135</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>103109.11108</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>103257.84789</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>131732.785</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>12821.11356</v>
@@ -5169,32 +5079,37 @@
         <v>32145.40176</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>52625.14324999999</v>
+        <v>52625.14325</v>
       </c>
       <c r="H97" s="21" t="n">
         <v>41094.55356</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>44767.72869</v>
+        <v>48345.34465</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>53051.41192999999</v>
       </c>
       <c r="K97" s="22" t="n">
-        <v>53204.18438000001</v>
+        <v>53204.18438</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>51834.59453</v>
+        <v>51834.59452999999</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>40691.23704000001</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>40691.23704</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>63677.731</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>107.11836</v>
@@ -5229,15 +5144,20 @@
       <c r="M98" s="22" t="n">
         <v>681.90863</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>262.816</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
-        <v>7502.452129999999</v>
+        <v>7502.452130000001</v>
       </c>
       <c r="D99" s="23" t="n">
         <v>3687.66221</v>
@@ -5249,13 +5169,13 @@
         <v>4479.57929</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>13178.24812</v>
+        <v>13197.91412</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>19645.10036</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>19782.37799</v>
+        <v>19904.71609</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>22413.9039</v>
@@ -5264,23 +5184,28 @@
         <v>25157.26402</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>19616.41484</v>
+        <v>19724.84896</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>21287.56059</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>21526.02339</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>46623.401</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>5683.79888</v>
       </c>
       <c r="D100" s="22" t="n">
-        <v>4259.894179999999</v>
+        <v>4259.89418</v>
       </c>
       <c r="E100" s="22" t="n">
         <v>4194.50109</v>
@@ -5298,7 +5223,7 @@
         <v>18680.83674</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>21419.22791000001</v>
+        <v>21419.22791</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>26395.73008</v>
@@ -5309,12 +5234,17 @@
       <c r="M100" s="22" t="n">
         <v>12429.39372</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>34822.278</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>38.24787999999999</v>
@@ -5366,7 +5301,7 @@
         <v>37.18189</v>
       </c>
       <c r="F102" s="21" t="n">
-        <v>69.12936000000001</v>
+        <v>69.12935999999999</v>
       </c>
       <c r="G102" s="22" t="n">
         <v>69.87441</v>
@@ -5375,7 +5310,7 @@
         <v>79.43825</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>45.28893</v>
+        <v>76.10791999999999</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>77.97033999999999</v>
@@ -5384,17 +5319,22 @@
         <v>72.23833999999999</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>64.66013000000001</v>
+        <v>71.78945</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>67.70332000000001</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>76.52248999999999</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>85.297</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>79.49196999999999</v>
@@ -5424,20 +5364,25 @@
         <v>200.19062</v>
       </c>
       <c r="L103" s="22" t="n">
-        <v>1258.20597</v>
+        <v>1357.87383</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>3661.6282</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>4098.670730000001</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>6727.662</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
-        <v>4528.785640000001</v>
+        <v>4528.78564</v>
       </c>
       <c r="D104" s="22" t="n">
         <v>1445.39912</v>
@@ -5449,13 +5394,13 @@
         <v>2124.28414</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>2334.72378</v>
+        <v>2354.38978</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>2722.4633</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>3148.37714</v>
+        <v>3191.74112</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>2939.85861</v>
@@ -5464,17 +5409,22 @@
         <v>3519.79376</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>5899.868699999999</v>
+        <v>5921.68421</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>9621.761190000001</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>9621.761189999999</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>13418.348</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>1767.50508</v>
@@ -5495,7 +5445,7 @@
         <v>2979.67825</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>2662.49518</v>
+        <v>2753.96952</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>3853.11517</v>
@@ -5507,23 +5457,28 @@
         <v>3001.9657</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>7934.56577</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>7938.465770000001</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>8162.359</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>4614.78632</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>3808.331020000001</v>
+        <v>3808.33102</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>4295.97095</v>
+        <v>4295.970949999999</v>
       </c>
       <c r="F106" s="21" t="n">
         <v>2879.25227</v>
@@ -5535,7 +5490,7 @@
         <v>4545.118820000001</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>5182.46483</v>
+        <v>5225.78404</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>6002.23757</v>
@@ -5544,17 +5499,22 @@
         <v>8027.519959999999</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>9351.103939999999</v>
+        <v>9371.282509999999</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>12438.92991</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>12650.22881</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>16671.789</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>19.409</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>11.4383</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>79.246</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1748.22078</v>
@@ -5849,13 +5844,13 @@
         <v>5480.86167</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>5861.86438</v>
+        <v>5861.864379999999</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>3827.5091</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>4347.190360000001</v>
+        <v>4451.189490000001</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>7100.359</v>
@@ -5864,17 +5859,22 @@
         <v>22666.92208</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>16659.99798</v>
+        <v>16680.68477</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>14292.43175</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>14315.11221</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>11854.549</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1386.74638</v>
@@ -5895,7 +5895,7 @@
         <v>3351.50471</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>3299.23503</v>
+        <v>3403.23416</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>7100.359</v>
@@ -5904,17 +5904,22 @@
         <v>22666.92208</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>16659.99798</v>
+        <v>16680.68477</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>14292.43175</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>14315.11221</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>11797.141</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>361.4744</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>57.408</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>3.92951</v>
@@ -5978,7 +5988,7 @@
         <v>497.64014</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>3640.995429999999</v>
+        <v>3640.99543</v>
       </c>
       <c r="K117" s="23" t="n">
         <v>3397.92995</v>
@@ -5987,14 +5997,19 @@
         <v>3125.22059</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>2430.848979999999</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>2430.84898</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>2393.272</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>11.16763</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>2.76987</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>3.92951</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,18 +6404,23 @@
       <c r="M126" s="22" t="n">
         <v>2416.911479999999</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>2379.242</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>678856.4813700001</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>806804.1446699998</v>
+        <v>806804.1446700001</v>
       </c>
       <c r="E127" s="23" t="n">
         <v>1008535.01881</v>
@@ -6369,29 +6429,32 @@
         <v>1229456.1593</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>1243072.11846</v>
+        <v>1258919.03546</v>
       </c>
       <c r="H127" s="33" t="n">
         <v>1381372.07687</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>1463542.08364</v>
+        <v>1596614.22555</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1757227.23713</v>
+        <v>1757226.33634</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>2251978.90441</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>2156299.31898</v>
+        <v>2158877.09163</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>2689194.07168</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>2699660.22322</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>3648924.117</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>309-Manufacture of transport equipment n.e.c.</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,15 +6553,20 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>350842.0720100001</v>
+        <v>350842.07201</v>
       </c>
       <c r="D132" s="23" t="n">
         <v>460075.92703</v>
@@ -6501,32 +6578,37 @@
         <v>681510.60309</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>691292.89952</v>
+        <v>701927.57622</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>780288.38072</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>794793.6592299999</v>
+        <v>935948.6716</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>984905.2960500002</v>
+        <v>985065.85918</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1136524.01184</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1350363.01317</v>
+        <v>1351833.16634</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1817651.1613</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1827249.1347</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>2497314.34</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>128747.06341</v>
@@ -6541,13 +6623,13 @@
         <v>238543.18949</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>236358.22789</v>
+        <v>243764.31333</v>
       </c>
       <c r="H133" s="33" t="n">
         <v>242856.66223</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>183279.16979</v>
+        <v>232270.22907</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>164328.32531</v>
@@ -6556,17 +6638,22 @@
         <v>182449.32368</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>250867.40735</v>
+        <v>250878.50205</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>312052.57728</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>312053.06467</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>436658.755</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>128425.99885</v>
@@ -6581,13 +6668,13 @@
         <v>237925.60958</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>235627.15075</v>
+        <v>243033.23619</v>
       </c>
       <c r="H134" s="21" t="n">
         <v>241856.67765</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>182299.91801</v>
+        <v>231290.97729</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>156570.10904</v>
@@ -6599,14 +6686,19 @@
         <v>246525.18935</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>297301.09753</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>297301.09743</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>407650.413</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>262.11821</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>679.5069999999999</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>33.27231</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>122.61988</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>10.803</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>89.52964</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>11575.09498</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>23098.179</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>2.68902</v>
@@ -6916,23 +7043,28 @@
         <v>1754.02464</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>1404.29601</v>
+        <v>1415.39071</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>2619.49765</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>2619.98514</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>5498.066</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
-        <v>47219.89578</v>
+        <v>47219.89577999999</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>74410.03625999999</v>
+        <v>74410.03626000001</v>
       </c>
       <c r="E143" s="46" t="n">
         <v>161910.19925</v>
@@ -6941,13 +7073,13 @@
         <v>147283.1942</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>130896.0239</v>
+        <v>131452.90886</v>
       </c>
       <c r="H143" s="45" t="n">
         <v>193017.63877</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>134981.89551</v>
+        <v>221170.31847</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>278390.10231</v>
@@ -6956,17 +7088,22 @@
         <v>376565.53869</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>316764.94077</v>
+        <v>316935.18551</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>399781.24477</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>402593.30621</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>630709.132</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>37290.93055</v>
@@ -6975,19 +7112,19 @@
         <v>45139.86543</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>91346.76701999998</v>
+        <v>91346.76702000001</v>
       </c>
       <c r="F144" s="24" t="n">
         <v>105661.72693</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>75680.40243</v>
+        <v>76237.28739</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>81929.17630999998</v>
+        <v>81929.17631</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>78700.99158</v>
+        <v>133169.50211</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>199067.46177</v>
@@ -6996,20 +7133,25 @@
         <v>303117.20072</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>247442.63446</v>
+        <v>247602.4959</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>358703.05684</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>361084.5682799999</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>560585.221</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>6282.721189999999</v>
+        <v>6282.72119</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>14133.15074</v>
@@ -7033,20 +7175,25 @@
         <v>24280.55237</v>
       </c>
       <c r="K145" s="25" t="n">
-        <v>65311.55421000001</v>
+        <v>65311.55421</v>
       </c>
       <c r="L145" s="25" t="n">
         <v>61305.91644</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>30832.16868</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>31162.16868</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>58937.567</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0.79377</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>40.00402</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>87</v>
@@ -7107,7 +7259,7 @@
         <v>22318.64708</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>209.9018</v>
+        <v>22315.4518</v>
       </c>
       <c r="J147" s="24" t="n">
         <v>74.90180000000001</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>870.0650900000001</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>181.783</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>3560.03781</v>
@@ -7141,35 +7298,40 @@
         <v>5437.53233</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>3963.243239999999</v>
+        <v>3963.24324</v>
       </c>
       <c r="H148" s="24" t="n">
         <v>57588.49667</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>32306.06768</v>
+        <v>41920.43011</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>55247.48006</v>
+        <v>55247.48005999999</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>8303.621519999999</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>8697.08792</v>
+        <v>8707.471220000001</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>9415.95818</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>9516.508179999999</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>11004.561</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
-        <v>83505.48611999999</v>
+        <v>83505.48612</v>
       </c>
       <c r="D149" s="23" t="n">
         <v>42592.06598000001</v>
@@ -7178,41 +7340,46 @@
         <v>76218.32343</v>
       </c>
       <c r="F149" s="33" t="n">
-        <v>69407.27863</v>
+        <v>69407.27863000002</v>
       </c>
       <c r="G149" s="23" t="n">
         <v>111974.23775</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>87191.22815000001</v>
+        <v>87191.22815</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>164439.20601</v>
+        <v>168485.5616</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>200872.18529</v>
+        <v>201032.92842</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>181899.41774</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>269387.46412</v>
+        <v>270441.6252899999</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>371751.0496099999</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>374711.15778</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>343956.051</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>46421.0231</v>
       </c>
       <c r="D150" s="22" t="n">
-        <v>40244.11326</v>
+        <v>40244.11326000001</v>
       </c>
       <c r="E150" s="22" t="n">
         <v>67587.16038</v>
@@ -7224,29 +7391,34 @@
         <v>103250.09889</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>62837.00032000001</v>
+        <v>62837.00032</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>136211.92653</v>
+        <v>140183.54981</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>179944.78778</v>
+        <v>180105.53091</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>164328.11033</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>230182.74662</v>
+        <v>231219.42286</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>305483.94639</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>308425.18083</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>327437.564</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>34753.70923000001</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>55269.95809</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>594.954</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1736.48054</v>
@@ -7347,26 +7529,31 @@
         <v>3855.12625</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>3801.64366</v>
+        <v>3860.08454</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>5867.23673</v>
+        <v>5867.236730000001</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>4210.563899999999</v>
+        <v>4210.5639</v>
       </c>
       <c r="L153" s="22" t="n">
         <v>4911.411779999999</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>5645.98698</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>5651.96849</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>8120.211</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>594.2732499999998</v>
@@ -7381,13 +7568,13 @@
         <v>22585.43654</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>5212.15204</v>
+        <v>5212.152039999999</v>
       </c>
       <c r="H154" s="21" t="n">
         <v>20499.10158</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>24224.35093</v>
+        <v>24240.64236</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>5206.92349</v>
@@ -7396,17 +7583,22 @@
         <v>6259.66422</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>6408.4831</v>
+        <v>6425.96803</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>5351.158149999999</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>5364.05037</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>7803.322</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>83097.75573999999</v>
@@ -7461,32 +7658,37 @@
         <v>212689.60914</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>198742.85494</v>
+        <v>201271.01336</v>
       </c>
       <c r="H156" s="33" t="n">
         <v>241552.30977</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>293238.8793099999</v>
+        <v>294007.68451</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>313245.50803</v>
       </c>
       <c r="K156" s="23" t="n">
-        <v>358226.6796700001</v>
+        <v>358226.67967</v>
       </c>
       <c r="L156" s="23" t="n">
         <v>485041.91103</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>697810.83823</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>701370.3172899999</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>1039902.292</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>83083.48173999999</v>
@@ -7501,13 +7703,13 @@
         <v>212582.74802</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>198742.85494</v>
+        <v>201271.01336</v>
       </c>
       <c r="H157" s="21" t="n">
         <v>241187.97203</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>293238.8793099999</v>
+        <v>293809.01381</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>313132.75885</v>
@@ -7519,14 +7721,19 @@
         <v>478822.05109</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>697637.39463</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>698179.6236899999</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>1038789.556</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>14.274</v>
@@ -7547,7 +7754,7 @@
         <v>364.33774</v>
       </c>
       <c r="I158" s="22" t="n">
-        <v>0</v>
+        <v>198.6707</v>
       </c>
       <c r="J158" s="21" t="n">
         <v>112.74918</v>
@@ -7556,17 +7763,22 @@
         <v>7157.604490000001</v>
       </c>
       <c r="L158" s="22" t="n">
-        <v>6219.859939999999</v>
+        <v>6219.85994</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>173.4436</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>3190.6936</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>1112.736</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>5032.817059999999</v>
@@ -7701,32 +7928,37 @@
         <v>8383.702600000001</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>7944.167229999999</v>
+        <v>8018.80388</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>9951.183069999999</v>
+        <v>9951.183070000001</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>12677.86795</v>
+        <v>12775.37563</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>17832.92367</v>
+        <v>17832.74367</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>28634.57329</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>16225.59579</v>
+        <v>16460.24835</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>15561.92875</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>15816.80681</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>25095.367</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1982.95596</v>
@@ -7738,35 +7970,40 @@
         <v>2996.963560000001</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>3491.275749999999</v>
+        <v>3491.27575</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>3346.660269999999</v>
+        <v>3361.26023</v>
       </c>
       <c r="H163" s="21" t="n">
         <v>3184.76583</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>3612.55692</v>
+        <v>3647.48592</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>6916.68257</v>
+        <v>6916.502570000001</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>16747.7713</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>6176.35324</v>
+        <v>6205.89001</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>5716.02065</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>5795.39245</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>11554.851</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1298.09865</v>
@@ -7781,32 +8018,37 @@
         <v>2765.3918</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>3007.32298</v>
+        <v>3067.35967</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>3193.76473</v>
+        <v>3193.764729999999</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>2961.58965</v>
+        <v>3024.16833</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>4258.20567</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>6591.56489</v>
+        <v>6591.564890000001</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>6367.289949999999</v>
+        <v>6423.78964</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>5143.093890000001</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>5174.82759</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>6070.615</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1737.12439</v>
@@ -7827,26 +8069,31 @@
         <v>3230.65469</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>5162.11572</v>
+        <v>5162.115720000001</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>5886.599190000001</v>
       </c>
       <c r="K165" s="22" t="n">
-        <v>4725.196319999999</v>
+        <v>4725.19632</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>2927.04544</v>
+        <v>3075.66154</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>3893.63191</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>4036.07447</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>5283.527</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>14.63806</v>
@@ -7876,17 +8123,22 @@
         <v>570.04078</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>754.9071599999999</v>
+        <v>754.90716</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>809.1823000000001</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>810.5123000000001</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>2186.374</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>1032.96573</v>
@@ -7901,16 +8153,16 @@
         <v>1992.03018</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>2340.90982</v>
+        <v>2409.82105</v>
       </c>
       <c r="H167" s="33" t="n">
         <v>2997.54765</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>2389.94296</v>
+        <v>3452.804620000001</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>5336.69319</v>
+        <v>5336.693189999999</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>3138.64023</v>
@@ -7919,14 +8171,19 @@
         <v>3096.90369</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>3069.82376</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>3079.70201</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>4161.473</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>3445.45054</v>
@@ -7944,10 +8201,10 @@
         <v>5517.07849</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>6750.13526</v>
+        <v>6750.135260000001</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>9595.951439999997</v>
+        <v>9653.302290000001</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>13396.26849</v>
@@ -7959,14 +8216,19 @@
         <v>11131.33541</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>9471.765460000001</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>9481.528940000002</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>21814.905</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>2847.67038</v>
@@ -7975,7 +8237,7 @@
         <v>4346.785940000001</v>
       </c>
       <c r="E169" s="22" t="n">
-        <v>7100.16027</v>
+        <v>7100.160269999999</v>
       </c>
       <c r="F169" s="21" t="n">
         <v>8513.158960000001</v>
@@ -7987,26 +8249,31 @@
         <v>3823.55384</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>7206.00848</v>
+        <v>7174.28853</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>8128.48653</v>
       </c>
       <c r="K169" s="22" t="n">
-        <v>7841.687440000001</v>
+        <v>7841.68744</v>
       </c>
       <c r="L169" s="22" t="n">
         <v>8034.43172</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>6471.66586</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>6471.55109</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>17653.432</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>92.45775999999999</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>69.72416</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>68.91122999999999</v>
@@ -8061,13 +8333,13 @@
         <v>68.91122999999999</v>
       </c>
       <c r="G171" s="22" t="n">
-        <v>0</v>
+        <v>68.91122999999999</v>
       </c>
       <c r="H171" s="21" t="n">
         <v>68.91122999999999</v>
       </c>
       <c r="I171" s="22" t="n">
-        <v>0</v>
+        <v>973.79086</v>
       </c>
       <c r="J171" s="21" t="n">
         <v>68.91122999999999</v>
@@ -8081,15 +8353,20 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
-        <v>273.81658</v>
+        <v>273.8165799999999</v>
       </c>
       <c r="D172" s="22" t="n">
         <v>812.35835</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>2127.68295</v>
@@ -8150,23 +8432,28 @@
         <v>3723.72602</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>4699.54057</v>
+        <v>4699.540569999999</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>5578.47001</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>8098.8647</v>
+        <v>8098.864699999999</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>16848.01532</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>16849.09635</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>15055.718</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>21.83294</v>
@@ -8193,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="K174" s="22" t="n">
-        <v>688.93064</v>
+        <v>688.9306399999999</v>
       </c>
       <c r="L174" s="22" t="n">
         <v>646.4087599999999</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>347.3026600000001</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>870.261</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>2105.85001</v>
@@ -8227,7 +8519,7 @@
         <v>2003.01318</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>3707.006019999999</v>
+        <v>3707.00602</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>4699.54057</v>
@@ -8239,14 +8531,19 @@
         <v>7452.455940000001</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>16500.71266</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>16501.79369</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>14185.457</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>78.40522</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>775.68358</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>1775.552</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>3.88095</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>775.68358</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>1611.019</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>73.57426999999998</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>155.242</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>9.291</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0.95</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>32648.22795</v>
@@ -8501,13 +8828,13 @@
         <v>44382.41756</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>65696.79095000001</v>
+        <v>67154.91706000001</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>89468.34593000001</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>133398.74906</v>
+        <v>137080.87343</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>165022.55378</v>
@@ -8519,14 +8846,19 @@
         <v>284520.30531</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>305013.7512</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>305099.0402</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>386320.949</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>27355.38321</v>
@@ -8541,13 +8873,13 @@
         <v>30590.39531</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>45169.30542</v>
+        <v>46627.43153</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>70670.22622</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>91881.83503</v>
+        <v>95563.95940000001</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>137178.41889</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>236645.77836</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>275911.781</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>26855.31824</v>
@@ -8581,13 +8918,13 @@
         <v>29792.9603</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>44714.87752</v>
+        <v>46173.00363</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>64986.99120999999</v>
+        <v>64986.99121</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>86514.87231000001</v>
+        <v>90123.09066</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>129531.64538</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>235856.13312</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>258316.221</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>565.2799</v>
@@ -8627,13 +8969,13 @@
         <v>6099.30341</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>5711.100709999999</v>
+        <v>5800.824439999999</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>5597.160890000001</v>
       </c>
       <c r="K185" s="22" t="n">
-        <v>5734.813539999999</v>
+        <v>5734.81354</v>
       </c>
       <c r="L185" s="22" t="n">
         <v>1325.59578</v>
@@ -8641,21 +8983,26 @@
       <c r="M185" s="22" t="n">
         <v>1091.34996</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>20553.18</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
-        <v>65.21493000000001</v>
+        <v>65.21493</v>
       </c>
       <c r="D186" s="22" t="n">
         <v>27.22041</v>
       </c>
       <c r="E186" s="22" t="n">
-        <v>45.37178000000001</v>
+        <v>45.37178</v>
       </c>
       <c r="F186" s="21" t="n">
         <v>67.69695999999999</v>
@@ -8667,7 +9014,7 @@
         <v>596.0684</v>
       </c>
       <c r="I186" s="22" t="n">
-        <v>437.4714</v>
+        <v>453.2891100000001</v>
       </c>
       <c r="J186" s="21" t="n">
         <v>279.22163</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>301.70472</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>3052.15</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>94.53</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>2148.917</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>720.8920000000001</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>9831.373</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0.177</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>527.926</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>989</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>720.55</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>9267.205</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>1159.74</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>36.242</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0.342</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>2416.74842</v>
@@ -9119,14 +9521,19 @@
         <v>28445.88798</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>62523.84007999999</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>62609.12908000001</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>62009.233</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>2399.76532</v>
@@ -9159,14 +9566,19 @@
         <v>26943.23236</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>61704.9426</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>61704.94260000001</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>61981.781</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>318.10883</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>16.9831</v>
@@ -9350,7 +9782,7 @@
         <v>0.32083</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>986.58886</v>
+        <v>986.5888600000001</v>
       </c>
       <c r="K203" s="22" t="n">
         <v>2068.02944</v>
@@ -9359,14 +9791,19 @@
         <v>1138.64275</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>500.78865</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>586.0776500000001</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>27.452</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>36556.556</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>36556.556</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>567.3831</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>567.3831</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>159.79622</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>5123.240759999999</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>2011.929</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>18.24794</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>18.0548</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>61.529</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>141.54828</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>5105.185959999999</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>1950.4</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>295366.18141</v>
@@ -9895,78 +10397,88 @@
         <v>300160.79436</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>357479.4172800001</v>
+        <v>357479.41728</v>
       </c>
       <c r="F217" s="33" t="n">
         <v>503563.13865</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>486082.4279899999</v>
+        <v>489836.54218</v>
       </c>
       <c r="H217" s="33" t="n">
         <v>511615.35022</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>535349.67535</v>
+        <v>523584.68052</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>607299.3872999999</v>
+        <v>607137.9233800001</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>770256.26961</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>521416.0005</v>
+        <v>522523.6199800001</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>566529.1591800001</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>567312.0483199999</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>765288.828</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
-        <v>325929.41193</v>
+        <v>325929.4119299999</v>
       </c>
       <c r="D218" s="23" t="n">
         <v>338624.92308</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>315342.84481</v>
+        <v>315342.8448099999</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>349515.4061999999</v>
+        <v>349515.4062</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>323595.94246</v>
+        <v>327099.39096</v>
       </c>
       <c r="H218" s="33" t="n">
         <v>327249.18723</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>307695.1315</v>
+        <v>318998.58</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>351879.23652</v>
+        <v>352169.28652</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>419730.21318</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>213190.64661</v>
+        <v>214082.14661</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>236367.15161</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>237208.15261</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>287373.143</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>266210.70501</v>
@@ -9981,35 +10493,40 @@
         <v>289108.95601</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>283803.45501</v>
+        <v>287303.45501</v>
       </c>
       <c r="H219" s="21" t="n">
         <v>290458.95501</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>269358.95501</v>
+        <v>280658.95501</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>314611.45501</v>
+        <v>314891.45501</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>390493.50101</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>221553.78857</v>
+        <v>222588.78857</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>241861.45501</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>243447.45601</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>298811.456</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
-        <v>9945.986129999999</v>
+        <v>9945.986130000001</v>
       </c>
       <c r="D220" s="22" t="n">
         <v>1666.5168</v>
@@ -10021,7 +10538,7 @@
         <v>7955.19974</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>905.1783200000001</v>
+        <v>905.17832</v>
       </c>
       <c r="H220" s="21" t="n">
         <v>3703.63811</v>
@@ -10030,50 +10547,55 @@
         <v>1791.21279</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>2895.75539</v>
+        <v>2885.70539</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>10797.61978</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>4362.496730000001</v>
+        <v>4505.99673</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>7059.82582</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>7804.82582</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>7414.337</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>69726.92333000001</v>
       </c>
       <c r="D221" s="22" t="n">
-        <v>69668.46515</v>
+        <v>69668.46514999999</v>
       </c>
       <c r="E221" s="22" t="n">
         <v>68888.6703</v>
       </c>
       <c r="F221" s="21" t="n">
-        <v>68372.27921000001</v>
+        <v>68372.27920999999</v>
       </c>
       <c r="G221" s="22" t="n">
-        <v>40708.29505000001</v>
+        <v>40711.74355</v>
       </c>
       <c r="H221" s="21" t="n">
         <v>40493.87033</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>40127.38928</v>
+        <v>40130.83777999999</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>40163.5369</v>
       </c>
       <c r="K221" s="22" t="n">
-        <v>40034.33194999999</v>
+        <v>40034.33195</v>
       </c>
       <c r="L221" s="22" t="n">
         <v>1571.38867</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>1565.52242</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>1548.058</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>62.23028</v>
@@ -10121,21 +10648,26 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>5572.034</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>25390.20166</v>
       </c>
       <c r="D223" s="23" t="n">
-        <v>7203.202</v>
+        <v>7203.201999999999</v>
       </c>
       <c r="E223" s="23" t="n">
-        <v>4602.700739999999</v>
+        <v>4602.70074</v>
       </c>
       <c r="F223" s="33" t="n">
         <v>3682.95623</v>
@@ -10147,7 +10679,7 @@
         <v>5792.036160000001</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>4885.27593</v>
+        <v>7049.94593</v>
       </c>
       <c r="J223" s="33" t="n">
         <v>34101.68421</v>
@@ -10159,14 +10691,19 @@
         <v>56672.9181</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>52852.75723</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>53102.75723</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>111107.582</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>20270.24597</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>76.19505000000001</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>76.19499999999999</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>120.70633</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10353,7 +10910,7 @@
         <v>26462.99623</v>
       </c>
       <c r="K228" s="22" t="n">
-        <v>8015.83562</v>
+        <v>8015.835620000001</v>
       </c>
       <c r="L228" s="22" t="n">
         <v>49046.66548</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>45131.83017</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>2446.056</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>1.525</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>4999.249360000001</v>
@@ -10427,7 +10994,7 @@
         <v>5502.91975</v>
       </c>
       <c r="I230" s="22" t="n">
-        <v>4596.159519999999</v>
+        <v>6760.829519999999</v>
       </c>
       <c r="J230" s="21" t="n">
         <v>7316.09857</v>
@@ -10439,14 +11006,19 @@
         <v>7548.532569999999</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>7643.20701</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>7893.20701</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>108583.806</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>24683.55964</v>
@@ -10458,41 +11030,46 @@
         <v>43363.27245</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>98477.01664</v>
+        <v>98477.01663999999</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>99165.35931999999</v>
+        <v>99197.30545999999</v>
       </c>
       <c r="H231" s="33" t="n">
         <v>115420.49809</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>135562.07213</v>
+        <v>135697.01481</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>156671.70496</v>
+        <v>156673.50112</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>184603.59822</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>144217.45325</v>
+        <v>144288.83854</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>151226.50343</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>151447.75622</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>152150.925</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>4801.51113</v>
       </c>
       <c r="D232" s="22" t="n">
-        <v>5368.06705</v>
+        <v>5368.067050000001</v>
       </c>
       <c r="E232" s="22" t="n">
         <v>6585.9084</v>
@@ -10507,26 +11084,31 @@
         <v>11996.51353</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>12261.08425</v>
+        <v>12364.08079</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>13734.93027</v>
+        <v>13736.72643</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>15855.58792</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>13722.51329</v>
+        <v>13741.76018</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>13676.14114</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>13695.38803</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>14834.415</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>104.84937</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>401.5645</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>492.533</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>17519.2532</v>
@@ -10587,26 +11174,31 @@
         <v>55620.11984000001</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>66211.36327999999</v>
+        <v>66211.36328000001</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>76879.89886999999</v>
       </c>
       <c r="K234" s="22" t="n">
-        <v>93531.85034999999</v>
+        <v>93531.85034999998</v>
       </c>
       <c r="L234" s="22" t="n">
         <v>69771.72702999999</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>75591.43613</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>75591.43613000002</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>76982.97</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>40090.19363</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>40090.194</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>2257.94594</v>
@@ -10661,13 +11258,13 @@
         <v>786.6354</v>
       </c>
       <c r="G236" s="22" t="n">
-        <v>684.67618</v>
+        <v>716.6223200000001</v>
       </c>
       <c r="H236" s="21" t="n">
         <v>7398.69908</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>16684.16347</v>
+        <v>16716.10961</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>25650.48406</v>
@@ -10676,17 +11273,22 @@
         <v>34805.51649</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>20415.37007</v>
+        <v>20467.50847</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>21467.16803</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>21669.17393</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>19750.813</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>43423.63830999999</v>
@@ -10701,32 +11303,37 @@
         <v>112074.75818</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>123405.22892</v>
+        <v>123583.19724</v>
       </c>
       <c r="H237" s="33" t="n">
         <v>162459.59798</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>168790.77139</v>
+        <v>169619.38346</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>189388.9664</v>
+        <v>189392.0285</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>276463.07206</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>248917.75809</v>
+        <v>249443.3202</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>272568.67525</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>273128.619</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>329447.179</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-137625.73219</v>
@@ -10741,32 +11348,37 @@
         <v>-106558.49099</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-86602.45891</v>
+        <v>-86602.45891000002</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-110438.04872</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-106846.5385</v>
+        <v>-124965.19068</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-148021.12332</v>
+        <v>-148479.64688</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-186581.39475</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-137683.55578</v>
+        <v>-137981.09942</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-174654.58694</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-175494.10345</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-203417.775</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>13565.10206</v>
@@ -10778,35 +11390,40 @@
         <v>36110.71993</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>46371.49238999999</v>
+        <v>46371.49239</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>22004.15493</v>
+        <v>22044.90615999999</v>
       </c>
       <c r="H239" s="33" t="n">
         <v>11132.07948</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>25262.9629</v>
+        <v>17184.947</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>23278.91853</v>
+        <v>23281.06991000001</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>40479.09787000001</v>
+        <v>40479.09787</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-3899.21977</v>
+        <v>-3982.504050000001</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>28168.6586</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>27918.86671</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>88627.774</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>21623.03163</v>
@@ -10821,13 +11438,13 @@
         <v>52739.02817999999</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>54620.29482999999</v>
+        <v>54661.04605999999</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>41987.6862</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>49917.06987000001</v>
+        <v>51301.40409</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>53861.01841</v>
@@ -10836,17 +11453,22 @@
         <v>54217.09756</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>40715.84215</v>
+        <v>40722.87512</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>54117.70370000001</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>54166.1682</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>119869.104</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>8057.92957</v>
@@ -10858,7 +11480,7 @@
         <v>14523.35325</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>6367.53579</v>
+        <v>6367.535789999999</v>
       </c>
       <c r="G241" s="22" t="n">
         <v>32616.1399</v>
@@ -10867,32 +11489,37 @@
         <v>30855.60672</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>24654.10697</v>
+        <v>34116.45709</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>30582.09988</v>
+        <v>30579.94849999999</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>13737.99969</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>44615.06192</v>
+        <v>44705.37917</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>25949.0451</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>26247.30149</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>31241.33</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>678856.4813699999</v>
+        <v>678856.4813700001</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>806804.1446700001</v>
+        <v>806804.14467</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>1008535.01881</v>
@@ -10901,29 +11528,32 @@
         <v>1229456.1593</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>1243072.11846</v>
+        <v>1258919.03546</v>
       </c>
       <c r="H242" s="48" t="n">
         <v>1381372.07687</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>1463542.08364</v>
+        <v>1596614.22555</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1757227.23713</v>
+        <v>1757226.33634</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>2251978.90441</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>2156299.31898</v>
+        <v>2158877.09163</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>2689194.071680001</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>2699660.22322</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>3648924.117</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>109</v>
@@ -10957,13 +11590,13 @@
         <v>111</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H244" s="53" t="n">
         <v>123</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J244" s="53" t="n">
         <v>129</v>
@@ -10972,14 +11605,17 @@
         <v>142</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>131</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>146</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>175</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>